--- a/spreadsheet/macrofree/servicebus_checklist.es.xlsx
+++ b/spreadsheet/macrofree/servicebus_checklist.es.xlsx
@@ -1983,12 +1983,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea posible, la aplicación debe usar una identidad administrada para autenticarse en Azure Service Bus. Si no es así, considere la posibilidad de tener la credencial de almacenamiento (SAS, credencial de entidad de servicio) en Azure Key Vault o en un servicio equivalente</t>
+          <t>Cuando sea posible, deshabilite la autenticación de clave SAS (o autenticación local) y use solo el identificador de Microsoft Entra para la autenticación</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una aplicación cliente de Service Bus que se ejecuta dentro de una aplicación de Azure App Service o en una máquina virtual con entidades administradas habilitadas para la compatibilidad con recursos de Azure no necesita controlar reglas y claves de SAS, ni ningún otro token de acceso. La aplicación cliente solo necesita la dirección del punto de conexión del espacio de nombres de mensajería de Service Bus. </t>
+          <t>Microsoft Entra ID proporciona una seguridad superior y facilidad de uso en comparación con las firmas de acceso compartido (SAS). Con Microsoft Entra ID, no es necesario almacenar los tokens en el código y correr el riesgo de posibles vulnerabilidades de seguridad. Se recomienda usar el identificador de Microsoft Entra con las aplicaciones de Azure Service Bus siempre que sea posible.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-bus-messaging/service-bus-managed-service-identity</t>
+          <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/disable-local-authentication</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
